--- a/Heuristicas/Resultado_Ensemble_smape_cenario_30.xlsx
+++ b/Heuristicas/Resultado_Ensemble_smape_cenario_30.xlsx
@@ -1,15 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amaral\Documents\Faculdade\tcc\Heuristicas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3A6F90-F597-4793-AAFA-76695A28A3AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -250,8 +266,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,11 +330,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -360,7 +384,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -392,9 +416,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -426,6 +468,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -601,14 +661,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,66 +687,66 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>36.077</v>
+        <v>36.076999999999998</v>
       </c>
       <c r="E2">
         <v>0.61</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.045</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="C3">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D3">
-        <v>0.733</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="E3">
-        <v>0.169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.008999999999999999</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="C4">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D4">
-        <v>5.929</v>
+        <v>5.9290000000000003</v>
       </c>
       <c r="E4">
-        <v>0.721</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.72099999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.053</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="C5">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="D5">
         <v>26.552</v>
@@ -693,80 +755,80 @@
         <v>1.093</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.094</v>
+        <v>9.4E-2</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>107.013</v>
+        <v>107.01300000000001</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.053</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="C7">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D7">
-        <v>91.215</v>
+        <v>91.215000000000003</v>
       </c>
       <c r="E7">
-        <v>0.9330000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.93300000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.141</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="C8">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D8">
-        <v>217.445</v>
+        <v>217.44499999999999</v>
       </c>
       <c r="E8">
         <v>1.992</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.08699999999999999</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="C9">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="D9">
-        <v>195.082</v>
+        <v>195.08199999999999</v>
       </c>
       <c r="E9">
-        <v>8.964</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>8.9640000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.168</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -778,24 +840,24 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.238</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>200.555</v>
+        <v>200.55500000000001</v>
       </c>
       <c r="E11">
         <v>0.22</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -803,21 +865,21 @@
         <v>0.123</v>
       </c>
       <c r="C12">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D12">
-        <v>211.855</v>
+        <v>211.85499999999999</v>
       </c>
       <c r="E12">
         <v>7.056</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.013</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -826,129 +888,129 @@
         <v>11.763</v>
       </c>
       <c r="E13">
-        <v>0.421</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.42099999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.068</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="C14">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D14">
         <v>119.58</v>
       </c>
       <c r="E14">
-        <v>9.836</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>9.8360000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C15">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D15">
-        <v>45.996</v>
+        <v>45.996000000000002</v>
       </c>
       <c r="E15">
-        <v>0.133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.143</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="C16">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D16">
-        <v>27.987</v>
+        <v>27.986999999999998</v>
       </c>
       <c r="E16">
         <v>1.667</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17">
-        <v>0.103</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="C17">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="D17">
-        <v>33.489</v>
+        <v>33.488999999999997</v>
       </c>
       <c r="E17">
         <v>0.371</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0.097</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="C18">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D18">
-        <v>23.824</v>
+        <v>23.824000000000002</v>
       </c>
       <c r="E18">
         <v>0.221</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
       <c r="B19">
-        <v>0.061</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>80.25700000000001</v>
+        <v>80.257000000000005</v>
       </c>
       <c r="E19">
-        <v>0.056</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.045</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="C20">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D20">
         <v>43.79</v>
       </c>
       <c r="E20">
-        <v>0.667</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.66700000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -956,16 +1018,16 @@
         <v>0.114</v>
       </c>
       <c r="C21">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="D21">
-        <v>118.647</v>
+        <v>118.64700000000001</v>
       </c>
       <c r="E21">
-        <v>6.789</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>6.7889999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -979,10 +1041,10 @@
         <v>196.059</v>
       </c>
       <c r="E22">
-        <v>19.507</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>19.507000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -990,24 +1052,24 @@
         <v>0.157</v>
       </c>
       <c r="C23">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D23">
-        <v>159.623</v>
+        <v>159.62299999999999</v>
       </c>
       <c r="E23">
         <v>3.72</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.051</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="C24">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D24">
         <v>42.686</v>
@@ -1016,75 +1078,75 @@
         <v>0.432</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.231</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="C25">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D25">
         <v>119.16</v>
       </c>
       <c r="E25">
-        <v>3.811</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>3.8109999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.045</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="C26">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D26">
-        <v>19.127</v>
+        <v>19.126999999999999</v>
       </c>
       <c r="E26">
         <v>1.381</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
       <c r="B27">
-        <v>0.036</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="C27">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D27">
-        <v>40.004</v>
+        <v>40.003999999999998</v>
       </c>
       <c r="E27">
-        <v>1.418</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>1.4179999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.068</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="C28">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="D28">
-        <v>72.949</v>
+        <v>72.948999999999998</v>
       </c>
       <c r="E28">
         <v>1.597</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1098,44 +1160,44 @@
         <v>232.876</v>
       </c>
       <c r="E29">
-        <v>40.894</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>40.893999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.053</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>24.531</v>
+        <v>24.530999999999999</v>
       </c>
       <c r="E30">
-        <v>0.454</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.45400000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.056</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="C31">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D31">
-        <v>43.453</v>
+        <v>43.453000000000003</v>
       </c>
       <c r="E31">
-        <v>0.889</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.88900000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1143,7 +1205,7 @@
         <v>0.161</v>
       </c>
       <c r="C32">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D32">
         <v>364.02</v>
@@ -1152,7 +1214,7 @@
         <v>8.48</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1160,50 +1222,50 @@
         <v>0.08</v>
       </c>
       <c r="C33">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D33">
-        <v>35.922</v>
+        <v>35.921999999999997</v>
       </c>
       <c r="E33">
         <v>0.191</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.242</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="C34">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D34">
-        <v>421.686</v>
+        <v>421.68599999999998</v>
       </c>
       <c r="E34">
-        <v>6.475</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>6.4749999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0.077</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="C35">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D35">
-        <v>84.47799999999999</v>
+        <v>84.477999999999994</v>
       </c>
       <c r="E35">
         <v>1.302</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1211,16 +1273,16 @@
         <v>0.114</v>
       </c>
       <c r="C36">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D36">
-        <v>171.628</v>
+        <v>171.62799999999999</v>
       </c>
       <c r="E36">
-        <v>4.169</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>4.1689999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1228,16 +1290,16 @@
         <v>0.156</v>
       </c>
       <c r="C37">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="D37">
-        <v>9.147</v>
+        <v>9.1470000000000002</v>
       </c>
       <c r="E37">
         <v>0.1</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1245,33 +1307,33 @@
         <v>0.25</v>
       </c>
       <c r="C38">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D38">
-        <v>282.039</v>
+        <v>282.03899999999999</v>
       </c>
       <c r="E38">
         <v>17.86</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.065</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>37.517</v>
+        <v>37.517000000000003</v>
       </c>
       <c r="E39">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -1279,16 +1341,16 @@
         <v>0.05</v>
       </c>
       <c r="C40">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D40">
-        <v>6.386</v>
+        <v>6.3860000000000001</v>
       </c>
       <c r="E40">
-        <v>0.322</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.32200000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -1296,33 +1358,33 @@
         <v>0.252</v>
       </c>
       <c r="C41">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D41">
-        <v>412.742</v>
+        <v>412.74200000000002</v>
       </c>
       <c r="E41">
-        <v>9.058999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>9.0589999999999993</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
       <c r="B42">
-        <v>0.203</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="C42">
-        <v>0.013</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="D42">
-        <v>287.797</v>
+        <v>287.79700000000003</v>
       </c>
       <c r="E42">
-        <v>15.216</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>15.215999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -1330,16 +1392,16 @@
         <v>0.11</v>
       </c>
       <c r="C43">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D43">
-        <v>66.468</v>
+        <v>66.468000000000004</v>
       </c>
       <c r="E43">
-        <v>2.285</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>2.2850000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -1347,33 +1409,33 @@
         <v>0.124</v>
       </c>
       <c r="C44">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D44">
-        <v>323.951</v>
+        <v>323.95100000000002</v>
       </c>
       <c r="E44">
-        <v>0.608</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.60799999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
       <c r="B45">
-        <v>0.057</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="C45">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="D45">
-        <v>0.056</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="E45">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -1381,41 +1443,41 @@
         <v>0.161</v>
       </c>
       <c r="C46">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D46">
         <v>105.589</v>
       </c>
       <c r="E46">
-        <v>0.449</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.44900000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.021</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="C47">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="D47">
-        <v>0.023</v>
+        <v>2.3E-2</v>
       </c>
       <c r="E47">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.067</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="C48">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D48">
         <v>303355.69</v>
@@ -1424,49 +1486,49 @@
         <v>11966.125</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.203</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="C49">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D49">
-        <v>575019.7</v>
+        <v>575019.69999999995</v>
       </c>
       <c r="E49">
-        <v>11706.746</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>11706.745999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>68.123</v>
+        <v>68.123000000000005</v>
       </c>
       <c r="E50">
-        <v>1.725</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>1.7250000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="C51">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D51">
         <v>9985984.875</v>
@@ -1475,185 +1537,185 @@
         <v>776706.902</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>10653877.416</v>
+        <v>10653877.415999999</v>
       </c>
       <c r="E52">
-        <v>90689.988</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>90689.987999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>56</v>
       </c>
       <c r="B53">
-        <v>0.257</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="C53">
         <v>0.01</v>
       </c>
       <c r="D53">
-        <v>47.983</v>
+        <v>47.982999999999997</v>
       </c>
       <c r="E53">
-        <v>0.166</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.16600000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0.651</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="C54">
-        <v>0.091</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="D54">
-        <v>4758.633</v>
+        <v>4758.6329999999998</v>
       </c>
       <c r="E54">
         <v>1239.675</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0.198</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="C55">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D55">
-        <v>97.411</v>
+        <v>97.411000000000001</v>
       </c>
       <c r="E55">
         <v>5.048</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0.08699999999999999</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="C56">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="D56">
-        <v>3426.476</v>
+        <v>3426.4760000000001</v>
       </c>
       <c r="E56">
-        <v>212.936</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>212.93600000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>60</v>
       </c>
       <c r="B57">
-        <v>0.063</v>
+        <v>6.3E-2</v>
       </c>
       <c r="C57">
-        <v>0.015</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D57">
-        <v>55.013</v>
+        <v>55.012999999999998</v>
       </c>
       <c r="E57">
         <v>12.093</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>61</v>
       </c>
       <c r="B58">
-        <v>0.201</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="C58">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="D58">
         <v>14500.606</v>
       </c>
       <c r="E58">
-        <v>865.877</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>865.87699999999995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C59">
-        <v>0.021</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="D59">
-        <v>1506.458</v>
+        <v>1506.4580000000001</v>
       </c>
       <c r="E59">
-        <v>100.204</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>100.20399999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0.429</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="C60">
-        <v>0.017</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="D60">
-        <v>122.451</v>
+        <v>122.45099999999999</v>
       </c>
       <c r="E60">
         <v>6.593</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>64</v>
       </c>
       <c r="B61">
-        <v>0.419</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="C61">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D61">
         <v>161.233</v>
       </c>
       <c r="E61">
-        <v>8.050000000000001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>8.0500000000000007</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0.365</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="C62">
-        <v>0.033</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="D62">
         <v>98.09</v>
@@ -1662,41 +1724,41 @@
         <v>10.821</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0.08400000000000001</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="C63">
-        <v>0.011</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="D63">
         <v>1072.79</v>
       </c>
       <c r="E63">
-        <v>66.02500000000001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>66.025000000000006</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>67</v>
       </c>
       <c r="B64">
-        <v>0.173</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="C64">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D64">
-        <v>7441.748</v>
+        <v>7441.7479999999996</v>
       </c>
       <c r="E64">
-        <v>303.383</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>303.38299999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -1707,64 +1769,64 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>17632.632</v>
+        <v>17632.632000000001</v>
       </c>
       <c r="E65">
-        <v>0.175</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0.199</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="C66">
-        <v>0.074</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="D66">
-        <v>4054.613</v>
+        <v>4054.6129999999998</v>
       </c>
       <c r="E66">
-        <v>1284.571</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>1284.5709999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0.242</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="C67">
-        <v>0.047</v>
+        <v>4.7E-2</v>
       </c>
       <c r="D67">
         <v>4905.192</v>
       </c>
       <c r="E67">
-        <v>802.506</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>802.50599999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0.017</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="C68">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D68">
         <v>12.5</v>
       </c>
       <c r="E68">
-        <v>0.985</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.98499999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>72</v>
       </c>
@@ -1772,7 +1834,7 @@
         <v>0.11</v>
       </c>
       <c r="C69">
-        <v>0.011</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="D69">
         <v>11585453.73</v>
@@ -1781,72 +1843,78 @@
         <v>1232131.314</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0.264</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="C70">
-        <v>0.054</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="D70">
         <v>1848794.56</v>
       </c>
       <c r="E70">
-        <v>420233.667</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>420233.66700000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>74</v>
       </c>
       <c r="B71">
-        <v>0.267</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="C71">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="D71">
-        <v>5272132.592</v>
+        <v>5272132.5920000002</v>
       </c>
       <c r="E71">
-        <v>45688.832</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>45688.832000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>75</v>
       </c>
       <c r="B72">
-        <v>0.022</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="C72">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D72">
-        <v>12.627</v>
+        <v>12.627000000000001</v>
       </c>
       <c r="E72">
-        <v>1.487</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>1.4870000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0.046</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="C73">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D73">
-        <v>25.987</v>
+        <v>25.986999999999998</v>
       </c>
       <c r="E73">
-        <v>1.938</v>
+        <v>1.9379999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <f>AVERAGE(B2:B73)</f>
+        <v>0.14272222222222219</v>
       </c>
     </row>
   </sheetData>
